--- a/notebooks/10_Programming Discipline/12_Syntax/gapminder.xlsx
+++ b/notebooks/10_Programming Discipline/12_Syntax/gapminder.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="296">
   <si>
     <t>country</t>
   </si>
   <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>life_expectancy</t>
   </si>
   <si>
@@ -28,430 +34,874 @@
     <t>gdp_per_cap</t>
   </si>
   <si>
+    <t>iso_alpha</t>
+  </si>
+  <si>
+    <t>iso_num</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
+    <t>AGO</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
+    <t>AUT</t>
+  </si>
+  <si>
     <t>Bahrain</t>
   </si>
   <si>
+    <t>BHR</t>
+  </si>
+  <si>
     <t>Bangladesh</t>
   </si>
   <si>
+    <t>BGD</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
+    <t>BEL</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
+    <t>BEN</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
+    <t>BOL</t>
+  </si>
+  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t>BIH</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
+    <t>BRA</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>BGR</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
+    <t>BFA</t>
+  </si>
+  <si>
     <t>Burundi</t>
   </si>
   <si>
+    <t>BDI</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
+    <t>KHM</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
+    <t>CMR</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
+    <t>CAN</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>CAF</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
+    <t>TCD</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
+    <t>CHL</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
+    <t>CHN</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
+    <t>COM</t>
+  </si>
+  <si>
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
+    <t>COD</t>
+  </si>
+  <si>
     <t>Congo, Rep.</t>
   </si>
   <si>
+    <t>COG</t>
+  </si>
+  <si>
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CRI</t>
+  </si>
+  <si>
     <t>Cote d'Ivoire</t>
   </si>
   <si>
+    <t>CIV</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
+    <t>HRV</t>
+  </si>
+  <si>
     <t>Cuba</t>
   </si>
   <si>
+    <t>CUB</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>CZE</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
+    <t>DNK</t>
+  </si>
+  <si>
     <t>Djibouti</t>
   </si>
   <si>
+    <t>DJI</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>DOM</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
+    <t>ECU</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
+    <t>EGY</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
+    <t>SLV</t>
+  </si>
+  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>GNQ</t>
+  </si>
+  <si>
     <t>Eritrea</t>
   </si>
   <si>
+    <t>ERI</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
+    <t>ETH</t>
+  </si>
+  <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>FIN</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
+    <t>FRA</t>
+  </si>
+  <si>
     <t>Gabon</t>
   </si>
   <si>
+    <t>GAB</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
+    <t>GMB</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>DEU</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
+    <t>GHA</t>
+  </si>
+  <si>
     <t>Greece</t>
   </si>
   <si>
+    <t>GRC</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
+    <t>GTM</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
+    <t>GIN</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
+    <t>GNB</t>
+  </si>
+  <si>
     <t>Haiti</t>
   </si>
   <si>
+    <t>HTI</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
+    <t>HND</t>
+  </si>
+  <si>
     <t>Hong Kong, China</t>
   </si>
   <si>
+    <t>HKG</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
+    <t>HUN</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
+    <t>ISL</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
+    <t>IDN</t>
+  </si>
+  <si>
     <t>Iran</t>
   </si>
   <si>
+    <t>IRN</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
+    <t>IRQ</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
+    <t>IRL</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
+    <t>ISR</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
+    <t>JAM</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>JPN</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
+    <t>JOR</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
+    <t>KEN</t>
+  </si>
+  <si>
     <t>Korea, Dem. Rep.</t>
   </si>
   <si>
+    <t>KOR</t>
+  </si>
+  <si>
     <t>Korea, Rep.</t>
   </si>
   <si>
     <t>Kuwait</t>
   </si>
   <si>
+    <t>KWT</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
+    <t>LBN</t>
+  </si>
+  <si>
     <t>Lesotho</t>
   </si>
   <si>
+    <t>LSO</t>
+  </si>
+  <si>
     <t>Liberia</t>
   </si>
   <si>
+    <t>LBR</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>LBY</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
+    <t>MDG</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
+    <t>MWI</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
+    <t>MYS</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
+    <t>MLI</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
+    <t>MRT</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
+    <t>MUS</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
+    <t>MEX</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
+    <t>MNG</t>
+  </si>
+  <si>
     <t>Montenegro</t>
   </si>
   <si>
+    <t>MNE</t>
+  </si>
+  <si>
     <t>Morocco</t>
   </si>
   <si>
+    <t>MAR</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
+    <t>MOZ</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>MMR</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
+    <t>NAM</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
+    <t>NPL</t>
+  </si>
+  <si>
     <t>Netherlands</t>
   </si>
   <si>
+    <t>NLD</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
+    <t>NZL</t>
+  </si>
+  <si>
     <t>Nicaragua</t>
   </si>
   <si>
+    <t>NIC</t>
+  </si>
+  <si>
     <t>Niger</t>
   </si>
   <si>
+    <t>NER</t>
+  </si>
+  <si>
     <t>Nigeria</t>
   </si>
   <si>
+    <t>NGA</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
+    <t>NOR</t>
+  </si>
+  <si>
     <t>Oman</t>
   </si>
   <si>
+    <t>OMN</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
+    <t>PAK</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
+    <t>PAN</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
+    <t>PRY</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
+    <t>PER</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
+    <t>PHL</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
+    <t>POL</t>
+  </si>
+  <si>
     <t>Portugal</t>
   </si>
   <si>
+    <t>PRT</t>
+  </si>
+  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>PRI</t>
+  </si>
+  <si>
     <t>Reunion</t>
   </si>
   <si>
+    <t>REU</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
+    <t>ROU</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
+    <t>RWA</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>STP</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>SAU</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
+    <t>SEN</t>
+  </si>
+  <si>
     <t>Serbia</t>
   </si>
   <si>
+    <t>SRB</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>SLE</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
+    <t>SGP</t>
+  </si>
+  <si>
     <t>Slovak Republic</t>
   </si>
   <si>
+    <t>SVK</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
+    <t>SVN</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
+    <t>SOM</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
+    <t>ZAF</t>
+  </si>
+  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>ESP</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>LKA</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
+    <t>SDN</t>
+  </si>
+  <si>
     <t>Swaziland</t>
   </si>
   <si>
+    <t>SWZ</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>SWE</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>CHE</t>
+  </si>
+  <si>
     <t>Syria</t>
   </si>
   <si>
+    <t>SYR</t>
+  </si>
+  <si>
     <t>Taiwan</t>
   </si>
   <si>
+    <t>TWN</t>
+  </si>
+  <si>
     <t>Tanzania</t>
   </si>
   <si>
+    <t>TZA</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
+    <t>THA</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
+    <t>TGO</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>TTO</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
+    <t>TUN</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
+    <t>TUR</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
+    <t>UGA</t>
+  </si>
+  <si>
     <t>United Kingdom</t>
   </si>
   <si>
+    <t>GBR</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
+    <t>URY</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
+    <t>VEN</t>
+  </si>
+  <si>
     <t>Vietnam</t>
   </si>
   <si>
+    <t>VNM</t>
+  </si>
+  <si>
     <t>West Bank and Gaza</t>
   </si>
   <si>
+    <t>PSE</t>
+  </si>
+  <si>
     <t>Yemen, Rep.</t>
   </si>
   <si>
+    <t>YEM</t>
+  </si>
+  <si>
     <t>Zambia</t>
   </si>
   <si>
+    <t>ZMB</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -476,7 +926,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -528,28 +978,28 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -854,2018 +1304,3738 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43.828</v>
+      </c>
+      <c r="E2" s="5">
+        <v>31889923</v>
+      </c>
+      <c r="F2" s="6">
+        <v>974.5803384</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>43.828</v>
-      </c>
-      <c r="C2" s="6">
-        <v>31889923</v>
-      </c>
-      <c r="D2" s="5">
-        <v>974.5803384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D3" s="6">
         <v>76.423</v>
       </c>
-      <c r="C3" s="6">
+      <c r="E3" s="5">
         <v>3600523</v>
       </c>
-      <c r="D3" s="5">
+      <c r="F3" s="6">
         <v>5937.029525999998</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D4" s="6">
         <v>72.301</v>
       </c>
-      <c r="C4" s="6">
+      <c r="E4" s="5">
         <v>33333216</v>
       </c>
-      <c r="D4" s="5">
+      <c r="F4" s="6">
         <v>6223.367465</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D5" s="6">
         <v>42.731</v>
       </c>
-      <c r="C5" s="6">
+      <c r="E5" s="5">
         <v>12420476</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="6">
         <v>4797.231267</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D6" s="6">
         <v>75.32</v>
       </c>
-      <c r="C6" s="6">
+      <c r="E6" s="5">
         <v>40301927</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="6">
         <v>12779.37964</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D7" s="6">
+        <v>81.235</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20434176</v>
+      </c>
+      <c r="F7" s="6">
+        <v>34435.36743999999</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D8" s="6">
+        <v>79.829</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8199783</v>
+      </c>
+      <c r="F8" s="6">
+        <v>36126.4927</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
-        <v>81.235</v>
-      </c>
-      <c r="C7" s="6">
-        <v>20434176</v>
-      </c>
-      <c r="D7" s="5">
-        <v>34435.36743999999</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>79.829</v>
-      </c>
-      <c r="C8" s="6">
-        <v>8199783</v>
-      </c>
-      <c r="D8" s="5">
-        <v>36126.4927</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="C9" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D9" s="6">
         <v>75.635</v>
       </c>
-      <c r="C9" s="6">
+      <c r="E9" s="5">
         <v>708573</v>
       </c>
-      <c r="D9" s="5">
+      <c r="F9" s="6">
         <v>29796.04834</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D10" s="6">
+        <v>64.062</v>
+      </c>
+      <c r="E10" s="5">
+        <v>150448339</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1391.253792</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
-        <v>64.062</v>
-      </c>
-      <c r="C10" s="6">
-        <v>150448339</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1391.253792</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="C11" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D11" s="6">
         <v>79.441</v>
       </c>
-      <c r="C11" s="6">
+      <c r="E11" s="5">
         <v>10392226</v>
       </c>
-      <c r="D11" s="5">
+      <c r="F11" s="6">
         <v>33692.60508</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="G11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D12" s="6">
         <v>56.728</v>
       </c>
-      <c r="C12" s="6">
+      <c r="E12" s="5">
         <v>8078314</v>
       </c>
-      <c r="D12" s="5">
+      <c r="F12" s="6">
         <v>1441.284873</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D13" s="6">
         <v>65.554</v>
       </c>
-      <c r="C13" s="6">
+      <c r="E13" s="5">
         <v>9119152</v>
       </c>
-      <c r="D13" s="5">
+      <c r="F13" s="6">
         <v>3822.137084</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D14" s="6">
         <v>74.852</v>
       </c>
-      <c r="C14" s="6">
+      <c r="E14" s="5">
         <v>4552198</v>
       </c>
-      <c r="D14" s="5">
+      <c r="F14" s="6">
         <v>7446.298803</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D15" s="6">
         <v>50.728</v>
       </c>
-      <c r="C15" s="6">
+      <c r="E15" s="5">
         <v>1639131</v>
       </c>
-      <c r="D15" s="5">
+      <c r="F15" s="6">
         <v>12569.85177</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D16" s="6">
         <v>72.39</v>
       </c>
-      <c r="C16" s="6">
+      <c r="E16" s="5">
         <v>190010647</v>
       </c>
-      <c r="D16" s="5">
+      <c r="F16" s="6">
         <v>9065.800825</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="G16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D17" s="6">
         <v>73.005</v>
       </c>
-      <c r="C17" s="6">
+      <c r="E17" s="5">
         <v>7322858</v>
       </c>
-      <c r="D17" s="5">
+      <c r="F17" s="6">
         <v>10680.79282</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D18" s="6">
+        <v>52.295</v>
+      </c>
+      <c r="E18" s="5">
+        <v>14326203</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1217.032994</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="5">
+        <v>854</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D19" s="6">
+        <v>49.58</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8390505</v>
+      </c>
+      <c r="F19" s="6">
+        <v>430.0706916</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="6">
+        <v>59.723</v>
+      </c>
+      <c r="E20" s="5">
+        <v>14131858</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1713.778686</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D21" s="6">
+        <v>50.43</v>
+      </c>
+      <c r="E21" s="5">
+        <v>17696293</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2042.09524</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
-        <v>52.295</v>
-      </c>
-      <c r="C18" s="6">
-        <v>14326203</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1217.032994</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="5">
-        <v>49.58</v>
-      </c>
-      <c r="C19" s="6">
-        <v>8390505</v>
-      </c>
-      <c r="D19" s="5">
-        <v>430.0706916</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
-        <v>59.723</v>
-      </c>
-      <c r="C20" s="6">
-        <v>14131858</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1713.778686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5">
-        <v>50.43</v>
-      </c>
-      <c r="C21" s="6">
-        <v>17696293</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2042.09524</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="C22" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="6">
         <v>80.653</v>
       </c>
-      <c r="C22" s="6">
+      <c r="E22" s="5">
         <v>33390141</v>
       </c>
-      <c r="D22" s="5">
+      <c r="F22" s="6">
         <v>36319.23501</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D23" s="6">
         <v>44.74100000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="E23" s="5">
         <v>4369038</v>
       </c>
-      <c r="D23" s="5">
+      <c r="F23" s="6">
         <v>706.016537</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="G23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D24" s="6">
         <v>50.651</v>
       </c>
-      <c r="C24" s="6">
+      <c r="E24" s="5">
         <v>10238807</v>
       </c>
-      <c r="D24" s="5">
+      <c r="F24" s="6">
         <v>1704.063724</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5">
+        <v>59</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D25" s="6">
         <v>78.553</v>
       </c>
-      <c r="C25" s="6">
+      <c r="E25" s="5">
         <v>16284741</v>
       </c>
-      <c r="D25" s="5">
+      <c r="F25" s="6">
         <v>13171.63885</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="G25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
+        <v>61</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D26" s="6">
         <v>72.961</v>
       </c>
-      <c r="C26" s="6">
+      <c r="E26" s="5">
         <v>1318683096</v>
       </c>
-      <c r="D26" s="5">
+      <c r="F26" s="6">
         <v>4959.114854</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="G26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D27" s="6">
         <v>72.889</v>
       </c>
-      <c r="C27" s="6">
+      <c r="E27" s="5">
         <v>44227550</v>
       </c>
-      <c r="D27" s="5">
+      <c r="F27" s="6">
         <v>7006.580419</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="G27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D28" s="6">
         <v>65.152</v>
       </c>
-      <c r="C28" s="6">
+      <c r="E28" s="5">
         <v>710960</v>
       </c>
-      <c r="D28" s="5">
+      <c r="F28" s="6">
         <v>986.1478792</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="G28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="5">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D29" s="6">
         <v>46.462</v>
       </c>
-      <c r="C29" s="6">
+      <c r="E29" s="5">
         <v>64606759</v>
       </c>
-      <c r="D29" s="5">
+      <c r="F29" s="6">
         <v>277.5518587</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="5">
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D30" s="6">
         <v>55.322</v>
       </c>
-      <c r="C30" s="6">
+      <c r="E30" s="5">
         <v>3800610</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="6">
         <v>3632.557798</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="5">
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D31" s="6">
         <v>78.782</v>
       </c>
-      <c r="C31" s="6">
+      <c r="E31" s="5">
         <v>4133884</v>
       </c>
-      <c r="D31" s="5">
+      <c r="F31" s="6">
         <v>9645.06142</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="5">
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="5">
+        <v>73</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D32" s="6">
         <v>48.328</v>
       </c>
-      <c r="C32" s="6">
+      <c r="E32" s="5">
         <v>18013409</v>
       </c>
-      <c r="D32" s="5">
+      <c r="F32" s="6">
         <v>1544.750112</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="5">
+        <v>384</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="5">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D33" s="6">
         <v>75.748</v>
       </c>
-      <c r="C33" s="6">
+      <c r="E33" s="5">
         <v>4493312</v>
       </c>
-      <c r="D33" s="5">
+      <c r="F33" s="6">
         <v>14619.22272</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="5">
+        <v>191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="5">
+        <v>77</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D34" s="6">
         <v>78.273</v>
       </c>
-      <c r="C34" s="6">
+      <c r="E34" s="5">
         <v>11416987</v>
       </c>
-      <c r="D34" s="5">
+      <c r="F34" s="6">
         <v>8948.102923</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="5">
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5">
+        <v>79</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D35" s="6">
         <v>76.486</v>
       </c>
-      <c r="C35" s="6">
+      <c r="E35" s="5">
         <v>10228744</v>
       </c>
-      <c r="D35" s="5">
+      <c r="F35" s="6">
         <v>22833.30851</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="5">
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5">
+        <v>81</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D36" s="6">
         <v>78.332</v>
       </c>
-      <c r="C36" s="6">
+      <c r="E36" s="5">
         <v>5468120</v>
       </c>
-      <c r="D36" s="5">
+      <c r="F36" s="6">
         <v>35278.41874</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="5">
+        <v>208</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5">
+        <v>83</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D37" s="6">
         <v>54.791</v>
       </c>
-      <c r="C37" s="6">
+      <c r="E37" s="5">
         <v>496374</v>
       </c>
-      <c r="D37" s="5">
+      <c r="F37" s="6">
         <v>2082.481567000001</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="5">
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="5">
+        <v>85</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D38" s="6">
         <v>72.235</v>
       </c>
-      <c r="C38" s="6">
+      <c r="E38" s="5">
         <v>9319622</v>
       </c>
-      <c r="D38" s="5">
+      <c r="F38" s="6">
         <v>6025.374752000002</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="5">
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="5">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D39" s="6">
         <v>74.994</v>
       </c>
-      <c r="C39" s="6">
+      <c r="E39" s="5">
         <v>13755680</v>
       </c>
-      <c r="D39" s="5">
+      <c r="F39" s="6">
         <v>6873.262326000001</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="5">
+        <v>218</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="5">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D40" s="6">
         <v>71.33800000000002</v>
       </c>
-      <c r="C40" s="6">
+      <c r="E40" s="5">
         <v>80264543</v>
       </c>
-      <c r="D40" s="5">
+      <c r="F40" s="6">
         <v>5581.180998</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="5">
+        <v>818</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="5">
+        <v>91</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D41" s="6">
         <v>71.878</v>
       </c>
-      <c r="C41" s="6">
+      <c r="E41" s="5">
         <v>6939688</v>
       </c>
-      <c r="D41" s="5">
+      <c r="F41" s="6">
         <v>5728.353514</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="5">
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="5">
+        <v>93</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D42" s="6">
         <v>51.57899999999999</v>
       </c>
-      <c r="C42" s="6">
+      <c r="E42" s="5">
         <v>551201</v>
       </c>
-      <c r="D42" s="5">
+      <c r="F42" s="6">
         <v>12154.08975</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="5">
+        <v>226</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="5">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D43" s="6">
         <v>58.04</v>
       </c>
-      <c r="C43" s="6">
+      <c r="E43" s="5">
         <v>4906585</v>
       </c>
-      <c r="D43" s="5">
+      <c r="F43" s="6">
         <v>641.3695236000002</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="5">
+        <v>232</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="5">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D44" s="6">
         <v>52.947</v>
       </c>
-      <c r="C44" s="6">
+      <c r="E44" s="5">
         <v>76511887</v>
       </c>
-      <c r="D44" s="5">
+      <c r="F44" s="6">
         <v>690.8055759</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="5">
+        <v>231</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="5">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D45" s="6">
         <v>79.313</v>
       </c>
-      <c r="C45" s="6">
+      <c r="E45" s="5">
         <v>5238460</v>
       </c>
-      <c r="D45" s="5">
+      <c r="F45" s="6">
         <v>33207.0844</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="5">
+        <v>246</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="5">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D46" s="6">
         <v>80.657</v>
       </c>
-      <c r="C46" s="6">
+      <c r="E46" s="5">
         <v>61083916</v>
       </c>
-      <c r="D46" s="5">
+      <c r="F46" s="6">
         <v>30470.0167</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="5">
+        <v>250</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="5">
+        <v>103</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D47" s="6">
         <v>56.735</v>
       </c>
-      <c r="C47" s="6">
+      <c r="E47" s="5">
         <v>1454867</v>
       </c>
-      <c r="D47" s="5">
+      <c r="F47" s="6">
         <v>13206.48452</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="5">
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="5">
+        <v>105</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D48" s="6">
         <v>59.448</v>
       </c>
-      <c r="C48" s="6">
+      <c r="E48" s="5">
         <v>1688359</v>
       </c>
-      <c r="D48" s="5">
+      <c r="F48" s="6">
         <v>752.7497265</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="5">
+        <v>270</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="5">
+        <v>107</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D49" s="6">
         <v>79.406</v>
       </c>
-      <c r="C49" s="6">
+      <c r="E49" s="5">
         <v>82400996</v>
       </c>
-      <c r="D49" s="5">
+      <c r="F49" s="6">
         <v>32170.37442</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="5">
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="5">
+        <v>109</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D50" s="6">
         <v>60.022</v>
       </c>
-      <c r="C50" s="6">
+      <c r="E50" s="5">
         <v>22873338</v>
       </c>
-      <c r="D50" s="5">
+      <c r="F50" s="6">
         <v>1327.60891</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="5">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="5">
+        <v>111</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D51" s="6">
         <v>79.483</v>
       </c>
-      <c r="C51" s="6">
+      <c r="E51" s="5">
         <v>10706290</v>
       </c>
-      <c r="D51" s="5">
+      <c r="F51" s="6">
         <v>27538.41188</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="5">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
+        <v>113</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D52" s="6">
         <v>70.259</v>
       </c>
-      <c r="C52" s="6">
+      <c r="E52" s="5">
         <v>12572928</v>
       </c>
-      <c r="D52" s="5">
+      <c r="F52" s="6">
         <v>5186.050003</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="5">
+        <v>320</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="5">
+        <v>115</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D53" s="6">
         <v>56.007</v>
       </c>
-      <c r="C53" s="6">
+      <c r="E53" s="5">
         <v>9947814</v>
       </c>
-      <c r="D53" s="5">
+      <c r="F53" s="6">
         <v>942.6542111</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="5">
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="5">
+        <v>117</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D54" s="6">
         <v>46.38800000000001</v>
       </c>
-      <c r="C54" s="6">
+      <c r="E54" s="5">
         <v>1472041</v>
       </c>
-      <c r="D54" s="5">
+      <c r="F54" s="6">
         <v>579.2317429999998</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="5">
+        <v>624</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="5">
+        <v>119</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D55" s="6">
         <v>60.916</v>
       </c>
-      <c r="C55" s="6">
+      <c r="E55" s="5">
         <v>8502814</v>
       </c>
-      <c r="D55" s="5">
+      <c r="F55" s="6">
         <v>1201.637154</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" s="5">
+        <v>332</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="5">
+        <v>121</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D56" s="6">
         <v>70.19800000000001</v>
       </c>
-      <c r="C56" s="6">
+      <c r="E56" s="5">
         <v>7483763</v>
       </c>
-      <c r="D56" s="5">
+      <c r="F56" s="6">
         <v>3548.330846000001</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="5">
+        <v>340</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="5">
+        <v>123</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D57" s="6">
         <v>82.208</v>
       </c>
-      <c r="C57" s="6">
+      <c r="E57" s="5">
         <v>6980412</v>
       </c>
-      <c r="D57" s="5">
+      <c r="F57" s="6">
         <v>39724.97867</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="5">
+        <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="5">
+        <v>125</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D58" s="6">
         <v>73.33800000000002</v>
       </c>
-      <c r="C58" s="6">
+      <c r="E58" s="5">
         <v>9956108</v>
       </c>
-      <c r="D58" s="5">
+      <c r="F58" s="6">
         <v>18008.94444</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="5">
+        <v>348</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="5">
+        <v>127</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D59" s="6">
         <v>81.757</v>
       </c>
-      <c r="C59" s="6">
+      <c r="E59" s="5">
         <v>301931</v>
       </c>
-      <c r="D59" s="5">
+      <c r="F59" s="6">
         <v>36180.78919</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="5">
+        <v>352</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="5">
+        <v>129</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D60" s="6">
         <v>64.69800000000001</v>
       </c>
-      <c r="C60" s="6">
+      <c r="E60" s="5">
         <v>1110396331</v>
       </c>
-      <c r="D60" s="5">
+      <c r="F60" s="6">
         <v>2452.210407</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="5">
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="5">
+        <v>131</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D61" s="6">
         <v>70.65</v>
       </c>
-      <c r="C61" s="6">
+      <c r="E61" s="5">
         <v>223547000</v>
       </c>
-      <c r="D61" s="5">
+      <c r="F61" s="6">
         <v>3540.651564</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="5">
+        <v>360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="5">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D62" s="6">
         <v>70.964</v>
       </c>
-      <c r="C62" s="6">
+      <c r="E62" s="5">
         <v>69453570</v>
       </c>
-      <c r="D62" s="5">
+      <c r="F62" s="6">
         <v>11605.71449</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" s="5">
+        <v>364</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="5">
+        <v>135</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D63" s="6">
         <v>59.545</v>
       </c>
-      <c r="C63" s="6">
+      <c r="E63" s="5">
         <v>27499638</v>
       </c>
-      <c r="D63" s="5">
+      <c r="F63" s="6">
         <v>4471.061906</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="5">
+        <v>368</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="5">
+        <v>137</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D64" s="6">
         <v>78.885</v>
       </c>
-      <c r="C64" s="6">
+      <c r="E64" s="5">
         <v>4109086</v>
       </c>
-      <c r="D64" s="5">
+      <c r="F64" s="6">
         <v>40675.99635</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="5">
+        <v>372</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="5">
+        <v>139</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D65" s="6">
         <v>80.745</v>
       </c>
-      <c r="C65" s="6">
+      <c r="E65" s="5">
         <v>6426679</v>
       </c>
-      <c r="D65" s="5">
+      <c r="F65" s="6">
         <v>25523.2771</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="5">
+        <v>376</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="5">
+        <v>141</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D66" s="6">
         <v>80.546</v>
       </c>
-      <c r="C66" s="6">
+      <c r="E66" s="5">
         <v>58147733</v>
       </c>
-      <c r="D66" s="5">
+      <c r="F66" s="6">
         <v>28569.7197</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="5">
+        <v>380</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="5">
+        <v>143</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D67" s="6">
         <v>72.567</v>
       </c>
-      <c r="C67" s="6">
+      <c r="E67" s="5">
         <v>2780132</v>
       </c>
-      <c r="D67" s="5">
+      <c r="F67" s="6">
         <v>7320.880262000001</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="5">
+        <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="5">
+        <v>145</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D68" s="6">
         <v>82.603</v>
       </c>
-      <c r="C68" s="6">
+      <c r="E68" s="5">
         <v>127467972</v>
       </c>
-      <c r="D68" s="5">
+      <c r="F68" s="6">
         <v>31656.06806</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H68" s="5">
+        <v>392</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="5">
+        <v>147</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D69" s="6">
         <v>72.535</v>
       </c>
-      <c r="C69" s="6">
+      <c r="E69" s="5">
         <v>6053193</v>
       </c>
-      <c r="D69" s="5">
+      <c r="F69" s="6">
         <v>4519.461171</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="5">
+        <v>400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="5">
+        <v>149</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D70" s="6">
         <v>54.11</v>
       </c>
-      <c r="C70" s="6">
+      <c r="E70" s="5">
         <v>35610177</v>
       </c>
-      <c r="D70" s="5">
+      <c r="F70" s="6">
         <v>1463.249282</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="5">
+        <v>404</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="5">
+        <v>151</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D71" s="6">
         <v>67.297</v>
       </c>
-      <c r="C71" s="6">
+      <c r="E71" s="5">
         <v>23301725</v>
       </c>
-      <c r="D71" s="5">
+      <c r="F71" s="6">
         <v>1593.06548</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="5">
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="5">
+        <v>153</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D72" s="6">
         <v>78.623</v>
       </c>
-      <c r="C72" s="6">
+      <c r="E72" s="5">
         <v>49044790</v>
       </c>
-      <c r="D72" s="5">
+      <c r="F72" s="6">
         <v>23348.13973000001</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H72" s="5">
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="5">
+        <v>154</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D73" s="6">
         <v>77.58800000000002</v>
       </c>
-      <c r="C73" s="6">
+      <c r="E73" s="5">
         <v>2505559</v>
       </c>
-      <c r="D73" s="5">
+      <c r="F73" s="6">
         <v>47306.98978</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="5">
+        <v>414</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="5">
+        <v>156</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D74" s="6">
         <v>71.993</v>
       </c>
-      <c r="C74" s="6">
+      <c r="E74" s="5">
         <v>3921278</v>
       </c>
-      <c r="D74" s="5">
+      <c r="F74" s="6">
         <v>10461.05868</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H74" s="5">
+        <v>422</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="5">
+        <v>158</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D75" s="6">
         <v>42.592</v>
       </c>
-      <c r="C75" s="6">
+      <c r="E75" s="5">
         <v>2012649</v>
       </c>
-      <c r="D75" s="5">
+      <c r="F75" s="6">
         <v>1569.331442</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" s="5">
+        <v>426</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="5">
+        <v>160</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D76" s="6">
         <v>45.678</v>
       </c>
-      <c r="C76" s="6">
+      <c r="E76" s="5">
         <v>3193942</v>
       </c>
-      <c r="D76" s="5">
+      <c r="F76" s="6">
         <v>414.5073415</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H76" s="5">
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="5">
+        <v>162</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D77" s="6">
         <v>73.952</v>
       </c>
-      <c r="C77" s="6">
+      <c r="E77" s="5">
         <v>6036914</v>
       </c>
-      <c r="D77" s="5">
+      <c r="F77" s="6">
         <v>12057.49928</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H77" s="5">
+        <v>434</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="5">
+        <v>164</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D78" s="6">
         <v>59.44300000000001</v>
       </c>
-      <c r="C78" s="6">
+      <c r="E78" s="5">
         <v>19167654</v>
       </c>
-      <c r="D78" s="5">
+      <c r="F78" s="6">
         <v>1044.770126</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="5">
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="5">
+        <v>166</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D79" s="6">
         <v>48.303</v>
       </c>
-      <c r="C79" s="6">
+      <c r="E79" s="5">
         <v>13327079</v>
       </c>
-      <c r="D79" s="5">
+      <c r="F79" s="6">
         <v>759.3499101</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H79" s="5">
+        <v>454</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="5">
+        <v>168</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D80" s="6">
         <v>74.241</v>
       </c>
-      <c r="C80" s="6">
+      <c r="E80" s="5">
         <v>24821286</v>
       </c>
-      <c r="D80" s="5">
+      <c r="F80" s="6">
         <v>12451.6558</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" s="5">
+        <v>458</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="5">
+        <v>170</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D81" s="6">
         <v>54.467</v>
       </c>
-      <c r="C81" s="6">
+      <c r="E81" s="5">
         <v>12031795</v>
       </c>
-      <c r="D81" s="5">
+      <c r="F81" s="6">
         <v>1042.581557</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="5">
+        <v>466</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="5">
+        <v>172</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D82" s="6">
         <v>64.164</v>
       </c>
-      <c r="C82" s="6">
+      <c r="E82" s="5">
         <v>3270065</v>
       </c>
-      <c r="D82" s="5">
+      <c r="F82" s="6">
         <v>1803.151496</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" s="5">
+        <v>478</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="5">
+        <v>174</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D83" s="6">
         <v>72.801</v>
       </c>
-      <c r="C83" s="6">
+      <c r="E83" s="5">
         <v>1250882</v>
       </c>
-      <c r="D83" s="5">
+      <c r="F83" s="6">
         <v>10956.99112</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H83" s="5">
+        <v>480</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="5">
+        <v>176</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D84" s="6">
         <v>76.195</v>
       </c>
-      <c r="C84" s="6">
+      <c r="E84" s="5">
         <v>108700891</v>
       </c>
-      <c r="D84" s="5">
+      <c r="F84" s="6">
         <v>11977.57496</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" s="5">
+        <v>484</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="5">
+        <v>178</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D85" s="6">
         <v>66.803</v>
       </c>
-      <c r="C85" s="6">
+      <c r="E85" s="5">
         <v>2874127</v>
       </c>
-      <c r="D85" s="5">
+      <c r="F85" s="6">
         <v>3095.772271000001</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H85" s="5">
+        <v>496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="5">
+        <v>180</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D86" s="6">
         <v>74.543</v>
       </c>
-      <c r="C86" s="6">
+      <c r="E86" s="5">
         <v>684736</v>
       </c>
-      <c r="D86" s="5">
+      <c r="F86" s="6">
         <v>9253.896111</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H86" s="5">
+        <v>499</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="5">
+        <v>182</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D87" s="6">
         <v>71.164</v>
       </c>
-      <c r="C87" s="6">
+      <c r="E87" s="5">
         <v>33757175</v>
       </c>
-      <c r="D87" s="5">
+      <c r="F87" s="6">
         <v>3820.17523</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H87" s="5">
+        <v>504</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="5">
+        <v>184</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D88" s="6">
         <v>42.082</v>
       </c>
-      <c r="C88" s="6">
+      <c r="E88" s="5">
         <v>19951656</v>
       </c>
-      <c r="D88" s="5">
+      <c r="F88" s="6">
         <v>823.6856205</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" s="5">
+        <v>508</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="5">
+        <v>186</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D89" s="6">
         <v>62.069</v>
       </c>
-      <c r="C89" s="6">
+      <c r="E89" s="5">
         <v>47761980</v>
       </c>
-      <c r="D89" s="6">
+      <c r="F89" s="5">
         <v>944</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" s="5">
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="5">
+        <v>188</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D90" s="6">
         <v>52.90600000000001</v>
       </c>
-      <c r="C90" s="6">
+      <c r="E90" s="5">
         <v>2055080</v>
       </c>
-      <c r="D90" s="5">
+      <c r="F90" s="6">
         <v>4811.060429</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" s="5">
+        <v>516</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="5">
+        <v>190</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D91" s="6">
         <v>63.785</v>
       </c>
-      <c r="C91" s="6">
+      <c r="E91" s="5">
         <v>28901790</v>
       </c>
-      <c r="D91" s="5">
+      <c r="F91" s="6">
         <v>1091.359778</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H91" s="5">
+        <v>524</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="5">
+        <v>192</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D92" s="6">
         <v>79.762</v>
       </c>
-      <c r="C92" s="6">
+      <c r="E92" s="5">
         <v>16570613</v>
       </c>
-      <c r="D92" s="5">
+      <c r="F92" s="6">
         <v>36797.93332</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="5">
+        <v>528</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="5">
+        <v>194</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D93" s="6">
         <v>80.204</v>
       </c>
-      <c r="C93" s="6">
+      <c r="E93" s="5">
         <v>4115771</v>
       </c>
-      <c r="D93" s="5">
+      <c r="F93" s="6">
         <v>25185.00911</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H93" s="5">
+        <v>554</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="5">
+        <v>196</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D94" s="6">
         <v>72.899</v>
       </c>
-      <c r="C94" s="6">
+      <c r="E94" s="5">
         <v>5675356</v>
       </c>
-      <c r="D94" s="5">
+      <c r="F94" s="6">
         <v>2749.320965</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="5">
+        <v>558</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="5">
+        <v>198</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D95" s="6">
         <v>56.867</v>
       </c>
-      <c r="C95" s="6">
+      <c r="E95" s="5">
         <v>12894865</v>
       </c>
-      <c r="D95" s="5">
+      <c r="F95" s="6">
         <v>619.6768923999998</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" s="5">
+        <v>562</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="5">
+        <v>200</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D96" s="6">
         <v>46.859</v>
       </c>
-      <c r="C96" s="6">
+      <c r="E96" s="5">
         <v>135031164</v>
       </c>
-      <c r="D96" s="5">
+      <c r="F96" s="6">
         <v>2013.977305</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="5">
+        <v>566</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="5">
+        <v>202</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D97" s="6">
         <v>80.196</v>
       </c>
-      <c r="C97" s="6">
+      <c r="E97" s="5">
         <v>4627926</v>
       </c>
-      <c r="D97" s="5">
+      <c r="F97" s="6">
         <v>49357.19017</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H97" s="5">
+        <v>578</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="5">
+        <v>204</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D98" s="6">
         <v>75.64</v>
       </c>
-      <c r="C98" s="6">
+      <c r="E98" s="5">
         <v>3204897</v>
       </c>
-      <c r="D98" s="5">
+      <c r="F98" s="6">
         <v>22316.19287</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" s="5">
+        <v>512</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="5">
+        <v>206</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D99" s="6">
         <v>65.483</v>
       </c>
-      <c r="C99" s="6">
+      <c r="E99" s="5">
         <v>169270617</v>
       </c>
-      <c r="D99" s="5">
+      <c r="F99" s="6">
         <v>2605.94758</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H99" s="5">
+        <v>586</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="5">
+        <v>208</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D100" s="6">
         <v>75.53699999999998</v>
       </c>
-      <c r="C100" s="6">
+      <c r="E100" s="5">
         <v>3242173</v>
       </c>
-      <c r="D100" s="5">
+      <c r="F100" s="6">
         <v>9809.185636</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H100" s="5">
+        <v>591</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="5">
+        <v>210</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D101" s="6">
         <v>71.752</v>
       </c>
-      <c r="C101" s="6">
+      <c r="E101" s="5">
         <v>6667147</v>
       </c>
-      <c r="D101" s="5">
+      <c r="F101" s="6">
         <v>4172.838464</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" s="5">
+        <v>600</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="5">
+        <v>212</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D102" s="6">
         <v>71.421</v>
       </c>
-      <c r="C102" s="6">
+      <c r="E102" s="5">
         <v>28674757</v>
       </c>
-      <c r="D102" s="5">
+      <c r="F102" s="6">
         <v>7408.905561</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H102" s="5">
+        <v>604</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="5">
+        <v>214</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D103" s="6">
         <v>71.688</v>
       </c>
-      <c r="C103" s="6">
+      <c r="E103" s="5">
         <v>91077287</v>
       </c>
-      <c r="D103" s="5">
+      <c r="F103" s="6">
         <v>3190.481016</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H103" s="5">
+        <v>608</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="5">
+        <v>216</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D104" s="6">
         <v>75.563</v>
       </c>
-      <c r="C104" s="6">
+      <c r="E104" s="5">
         <v>38518241</v>
       </c>
-      <c r="D104" s="5">
+      <c r="F104" s="6">
         <v>15389.92468</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H104" s="5">
+        <v>616</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="5">
+        <v>218</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D105" s="6">
         <v>78.098</v>
       </c>
-      <c r="C105" s="6">
+      <c r="E105" s="5">
         <v>10642836</v>
       </c>
-      <c r="D105" s="5">
+      <c r="F105" s="6">
         <v>20509.64777</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" s="5">
+        <v>620</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" s="5">
+        <v>220</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D106" s="6">
         <v>78.74600000000002</v>
       </c>
-      <c r="C106" s="6">
+      <c r="E106" s="5">
         <v>3942491</v>
       </c>
-      <c r="D106" s="5">
+      <c r="F106" s="6">
         <v>19328.70901</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H106" s="5">
+        <v>630</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="5">
+        <v>222</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D107" s="6">
         <v>76.442</v>
       </c>
-      <c r="C107" s="6">
+      <c r="E107" s="5">
         <v>798094</v>
       </c>
-      <c r="D107" s="5">
+      <c r="F107" s="6">
         <v>7670.122558</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H107" s="5">
+        <v>638</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="5">
+        <v>224</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D108" s="6">
         <v>72.476</v>
       </c>
-      <c r="C108" s="6">
+      <c r="E108" s="5">
         <v>22276056</v>
       </c>
-      <c r="D108" s="5">
+      <c r="F108" s="6">
         <v>10808.47561</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H108" s="5">
+        <v>642</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="5">
+        <v>226</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D109" s="6">
         <v>46.242</v>
       </c>
-      <c r="C109" s="6">
+      <c r="E109" s="5">
         <v>8860588</v>
       </c>
-      <c r="D109" s="5">
+      <c r="F109" s="6">
         <v>863.0884639000002</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H109" s="5">
+        <v>646</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="5">
+        <v>228</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D110" s="6">
         <v>65.528</v>
       </c>
-      <c r="C110" s="6">
+      <c r="E110" s="5">
         <v>199579</v>
       </c>
-      <c r="D110" s="5">
+      <c r="F110" s="6">
         <v>1598.435089</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H110" s="5">
+        <v>678</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="5">
+        <v>230</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D111" s="6">
         <v>72.777</v>
       </c>
-      <c r="C111" s="6">
+      <c r="E111" s="5">
         <v>27601038</v>
       </c>
-      <c r="D111" s="5">
+      <c r="F111" s="6">
         <v>21654.83194</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H111" s="5">
+        <v>682</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="5">
+        <v>232</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D112" s="6">
         <v>63.062</v>
       </c>
-      <c r="C112" s="6">
+      <c r="E112" s="5">
         <v>12267493</v>
       </c>
-      <c r="D112" s="5">
+      <c r="F112" s="6">
         <v>1712.472136</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H112" s="5">
+        <v>686</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="5">
+        <v>234</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D113" s="6">
         <v>74.002</v>
       </c>
-      <c r="C113" s="6">
+      <c r="E113" s="5">
         <v>10150265</v>
       </c>
-      <c r="D113" s="5">
+      <c r="F113" s="6">
         <v>9786.534714</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H113" s="5">
+        <v>688</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="5">
+        <v>236</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D114" s="6">
         <v>42.56800000000001</v>
       </c>
-      <c r="C114" s="6">
+      <c r="E114" s="5">
         <v>6144562</v>
       </c>
-      <c r="D114" s="5">
+      <c r="F114" s="6">
         <v>862.5407561000002</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" s="5">
+        <v>694</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="5">
+        <v>238</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D115" s="6">
         <v>79.972</v>
       </c>
-      <c r="C115" s="6">
+      <c r="E115" s="5">
         <v>4553009</v>
       </c>
-      <c r="D115" s="5">
+      <c r="F115" s="6">
         <v>47143.17964</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H115" s="5">
+        <v>702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="5">
+        <v>240</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D116" s="6">
         <v>74.663</v>
       </c>
-      <c r="C116" s="6">
+      <c r="E116" s="5">
         <v>5447502</v>
       </c>
-      <c r="D116" s="5">
+      <c r="F116" s="6">
         <v>18678.31435</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H116" s="5">
+        <v>703</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="5">
+        <v>242</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D117" s="6">
         <v>77.926</v>
       </c>
-      <c r="C117" s="6">
+      <c r="E117" s="5">
         <v>2009245</v>
       </c>
-      <c r="D117" s="5">
+      <c r="F117" s="6">
         <v>25768.25759</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H117" s="5">
+        <v>705</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="5">
+        <v>244</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D118" s="6">
         <v>48.159</v>
       </c>
-      <c r="C118" s="6">
+      <c r="E118" s="5">
         <v>9118773</v>
       </c>
-      <c r="D118" s="5">
+      <c r="F118" s="6">
         <v>926.1410683</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H118" s="5">
+        <v>706</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="5">
+        <v>246</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D119" s="6">
         <v>49.339</v>
       </c>
-      <c r="C119" s="6">
+      <c r="E119" s="5">
         <v>43997828</v>
       </c>
-      <c r="D119" s="5">
+      <c r="F119" s="6">
         <v>9269.657808</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H119" s="5">
+        <v>710</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="5">
+        <v>248</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D120" s="6">
         <v>80.941</v>
       </c>
-      <c r="C120" s="6">
+      <c r="E120" s="5">
         <v>40448191</v>
       </c>
-      <c r="D120" s="5">
+      <c r="F120" s="6">
         <v>28821.0637</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H120" s="5">
+        <v>724</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="5">
+        <v>250</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D121" s="6">
         <v>72.396</v>
       </c>
-      <c r="C121" s="6">
+      <c r="E121" s="5">
         <v>20378239</v>
       </c>
-      <c r="D121" s="5">
+      <c r="F121" s="6">
         <v>3970.095407</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H121" s="5">
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="5">
+        <v>252</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D122" s="6">
         <v>58.556</v>
       </c>
-      <c r="C122" s="6">
+      <c r="E122" s="5">
         <v>42292929</v>
       </c>
-      <c r="D122" s="5">
+      <c r="F122" s="6">
         <v>2602.394995</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H122" s="5">
+        <v>736</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="5">
+        <v>254</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D123" s="6">
         <v>39.613</v>
       </c>
-      <c r="C123" s="6">
+      <c r="E123" s="5">
         <v>1133066</v>
       </c>
-      <c r="D123" s="5">
+      <c r="F123" s="6">
         <v>4513.480643</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H123" s="5">
+        <v>748</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="5">
+        <v>256</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D124" s="6">
         <v>80.884</v>
       </c>
-      <c r="C124" s="6">
+      <c r="E124" s="5">
         <v>9031088</v>
       </c>
-      <c r="D124" s="5">
+      <c r="F124" s="6">
         <v>33859.74835</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H124" s="5">
+        <v>752</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" s="5">
+        <v>258</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D125" s="6">
         <v>81.70100000000002</v>
       </c>
-      <c r="C125" s="6">
+      <c r="E125" s="5">
         <v>7554661</v>
       </c>
-      <c r="D125" s="5">
+      <c r="F125" s="6">
         <v>37506.41907</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H125" s="5">
+        <v>756</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" s="5">
+        <v>260</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D126" s="6">
         <v>74.143</v>
       </c>
-      <c r="C126" s="6">
+      <c r="E126" s="5">
         <v>19314747</v>
       </c>
-      <c r="D126" s="5">
+      <c r="F126" s="6">
         <v>4184.548089</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H126" s="5">
+        <v>760</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="5">
+        <v>262</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D127" s="6">
         <v>78.4</v>
       </c>
-      <c r="C127" s="6">
+      <c r="E127" s="5">
         <v>23174294</v>
       </c>
-      <c r="D127" s="5">
+      <c r="F127" s="6">
         <v>28718.27684</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H127" s="5">
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="5">
+        <v>264</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D128" s="6">
         <v>52.517</v>
       </c>
-      <c r="C128" s="6">
+      <c r="E128" s="5">
         <v>38139640</v>
       </c>
-      <c r="D128" s="5">
+      <c r="F128" s="6">
         <v>1107.482182</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H128" s="5">
+        <v>834</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="5">
+        <v>266</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D129" s="6">
         <v>70.616</v>
       </c>
-      <c r="C129" s="6">
+      <c r="E129" s="5">
         <v>65068149</v>
       </c>
-      <c r="D129" s="5">
+      <c r="F129" s="6">
         <v>7458.396326999998</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H129" s="5">
+        <v>764</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="5">
+        <v>268</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D130" s="6">
         <v>58.42</v>
       </c>
-      <c r="C130" s="6">
+      <c r="E130" s="5">
         <v>5701579</v>
       </c>
-      <c r="D130" s="5">
+      <c r="F130" s="6">
         <v>882.9699437999999</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H130" s="5">
+        <v>768</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="5">
+        <v>270</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D131" s="6">
         <v>69.819</v>
       </c>
-      <c r="C131" s="6">
+      <c r="E131" s="5">
         <v>1056608</v>
       </c>
-      <c r="D131" s="5">
+      <c r="F131" s="6">
         <v>18008.50924</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H131" s="5">
+        <v>780</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" s="5">
+        <v>272</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D132" s="6">
         <v>73.923</v>
       </c>
-      <c r="C132" s="6">
+      <c r="E132" s="5">
         <v>10276158</v>
       </c>
-      <c r="D132" s="5">
+      <c r="F132" s="6">
         <v>7092.923025</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H132" s="5">
+        <v>788</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" s="5">
+        <v>274</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D133" s="6">
         <v>71.777</v>
       </c>
-      <c r="C133" s="6">
+      <c r="E133" s="5">
         <v>71158647</v>
       </c>
-      <c r="D133" s="5">
+      <c r="F133" s="6">
         <v>8458.276384</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H133" s="5">
+        <v>792</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" s="5">
+        <v>276</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D134" s="6">
         <v>51.542</v>
       </c>
-      <c r="C134" s="6">
+      <c r="E134" s="5">
         <v>29170398</v>
       </c>
-      <c r="D134" s="5">
+      <c r="F134" s="6">
         <v>1056.380121</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H134" s="5">
+        <v>800</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" s="5">
+        <v>278</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D135" s="6">
         <v>79.425</v>
       </c>
-      <c r="C135" s="6">
+      <c r="E135" s="5">
         <v>60776238</v>
       </c>
-      <c r="D135" s="5">
+      <c r="F135" s="6">
         <v>33203.26128</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H135" s="5">
+        <v>826</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" s="5">
+        <v>280</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D136" s="6">
         <v>78.242</v>
       </c>
-      <c r="C136" s="6">
+      <c r="E136" s="5">
         <v>301139947</v>
       </c>
-      <c r="D136" s="5">
+      <c r="F136" s="6">
         <v>42951.65309</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H136" s="5">
+        <v>840</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" s="5">
+        <v>282</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D137" s="6">
         <v>76.384</v>
       </c>
-      <c r="C137" s="6">
+      <c r="E137" s="5">
         <v>3447496</v>
       </c>
-      <c r="D137" s="5">
+      <c r="F137" s="6">
         <v>10611.46299</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H137" s="5">
+        <v>858</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" s="5">
+        <v>284</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D138" s="6">
         <v>73.747</v>
       </c>
-      <c r="C138" s="6">
+      <c r="E138" s="5">
         <v>26084662</v>
       </c>
-      <c r="D138" s="5">
+      <c r="F138" s="6">
         <v>11415.80569</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H138" s="5">
+        <v>862</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="5">
+        <v>286</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D139" s="6">
         <v>74.249</v>
       </c>
-      <c r="C139" s="6">
+      <c r="E139" s="5">
         <v>85262356</v>
       </c>
-      <c r="D139" s="5">
+      <c r="F139" s="6">
         <v>2441.576404</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H139" s="5">
+        <v>704</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" s="5">
+        <v>288</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D140" s="6">
         <v>73.422</v>
       </c>
-      <c r="C140" s="6">
+      <c r="E140" s="5">
         <v>4018332</v>
       </c>
-      <c r="D140" s="5">
+      <c r="F140" s="6">
         <v>3025.349798</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H140" s="5">
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="5">
+        <v>290</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D141" s="6">
         <v>62.698</v>
       </c>
-      <c r="C141" s="6">
+      <c r="E141" s="5">
         <v>22211743</v>
       </c>
-      <c r="D141" s="5">
+      <c r="F141" s="6">
         <v>2280.769906</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H141" s="5">
+        <v>887</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" s="5">
+        <v>292</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D142" s="6">
         <v>42.38399999999999</v>
       </c>
-      <c r="C142" s="6">
+      <c r="E142" s="5">
         <v>11746035</v>
       </c>
-      <c r="D142" s="5">
+      <c r="F142" s="6">
         <v>1271.211593</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H142" s="5">
+        <v>894</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="5">
+        <v>294</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D143" s="6">
         <v>43.487</v>
       </c>
-      <c r="C143" s="6">
+      <c r="E143" s="5">
         <v>12311143</v>
       </c>
-      <c r="D143" s="5">
+      <c r="F143" s="6">
         <v>469.7092981000001</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H143" s="5">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
